--- a/biology/Zoologie/Eurycestus_avoceti/Eurycestus_avoceti.xlsx
+++ b/biology/Zoologie/Eurycestus_avoceti/Eurycestus_avoceti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurycestus avoceti est une espèce de vers plats, de la famille des Dilepididae. Il parasite l'Avocette élégante (Recurvirostra avosetta) et l'Avocette d'Amérique (Recurvirostra americana), des oiseaux limicoles caractéristiques des lagunes et marais côtiers, avec comme hôte intermédiaire des artémies (de petits Crustacés).
 </t>
